--- a/biology/Zoologie/Carouge_velouté/Carouge_velouté.xlsx
+++ b/biology/Zoologie/Carouge_velouté/Carouge_velouté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carouge_velout%C3%A9</t>
+          <t>Carouge_velouté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge velouté (Lampropsar tanagrinus), aussi appelé Quiscale velouté, est une espèce de passereaux de la famille des Icteridae. C'est la seule espèce du genre Lampropsar.
 Il se nourrit d'insectes, de graines et de lézards.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carouge_velout%C3%A9</t>
+          <t>Carouge_velouté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve  en Bolivie, Brésil, Colombie, Équateur, Guyana, Pérou et Venezuela.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carouge_velout%C3%A9</t>
+          <t>Carouge_velouté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les zones de marais humides tropicales et subtropicales et les forêts primaires fortement dégradées.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carouge_velout%C3%A9</t>
+          <t>Carouge_velouté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
 Lampropsar tanagrinus guianensis Cabanis 1848
